--- a/public/assets/template/Template_Multiple_Edit_Peserta_V2.xlsx
+++ b/public/assets/template/Template_Multiple_Edit_Peserta_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aaisv2\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E22AA2-6049-4342-BD84-D6486CE62B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C119152-05E0-49E4-94C4-DBE063B87A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBE44437-2027-419A-9E03-C4B7FB461C3D}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Import_Peserta" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="bkrj">Import_Peserta!$AF$4:$AF$6</definedName>
-    <definedName name="idBekerja1">Import_Peserta!$AF$4:$AF$6</definedName>
-    <definedName name="idBekerja2">Import_Peserta!$AF$4:$AG$6</definedName>
-    <definedName name="idLevel">Import_Peserta!$Y$4:$Z$6</definedName>
-    <definedName name="idLevel1">Import_Peserta!$Y$4:$Z$6</definedName>
-    <definedName name="idLevel2">Import_Peserta!$Z$4:$AA$6</definedName>
-    <definedName name="LevelID">Import_Peserta!$Y$4:$Z$6</definedName>
-    <definedName name="TABEL_LEVEL">Import_Peserta!$Y$4:$Z$6</definedName>
+    <definedName name="bkrj">Import_Peserta!$AE$4:$AE$6</definedName>
+    <definedName name="idBekerja1">Import_Peserta!$AE$4:$AE$6</definedName>
+    <definedName name="idBekerja2">Import_Peserta!$AE$4:$AF$6</definedName>
+    <definedName name="idLevel">Import_Peserta!$X$4:$Y$6</definedName>
+    <definedName name="idLevel1">Import_Peserta!$X$4:$Y$6</definedName>
+    <definedName name="idLevel2">Import_Peserta!$Y$4:$Z$6</definedName>
+    <definedName name="LevelID">Import_Peserta!$X$4:$Y$6</definedName>
+    <definedName name="TABEL_LEVEL">Import_Peserta!$X$4:$Y$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>AKHWAT</t>
   </si>
@@ -145,9 +145,6 @@
     <t>AKTIF</t>
   </si>
   <si>
-    <t>USER ID (Kosongkan Saja)</t>
-  </si>
-  <si>
     <t>TEMPLATE MULTIPLE EDIT DATA PESERTA ALHAQQ - ACADEMIC ALHAQQ INFORMATION SYSTEM</t>
   </si>
   <si>
@@ -161,6 +158,12 @@
   </si>
   <si>
     <t>I0122000111</t>
+  </si>
+  <si>
+    <t>STATUS AKUN (0:disable, 1:aktif)</t>
+  </si>
+  <si>
+    <t>USER ID (Diisi berdasarkan hasil export data peserta)</t>
   </si>
 </sst>
 </file>
@@ -238,12 +241,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -339,12 +342,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -391,6 +420,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,6 +434,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -714,17 +751,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA90808-26CA-425E-AFF8-5A75E26FF3FF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="28" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="35.77734375" customWidth="1"/>
@@ -745,67 +782,68 @@
     <col min="21" max="21" width="25.77734375" customWidth="1"/>
     <col min="22" max="22" width="15.77734375" style="8" customWidth="1"/>
     <col min="23" max="23" width="30" customWidth="1"/>
-    <col min="26" max="26" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.109375" customWidth="1"/>
-    <col min="29" max="29" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.109375" customWidth="1"/>
+    <col min="25" max="25" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.109375" customWidth="1"/>
+    <col min="28" max="28" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+    <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
-    <row r="2" spans="1:33" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="23">
+    <row r="2" spans="1:32" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>45047</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
     </row>
-    <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -817,7 +855,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:33" ht="87.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" ht="58.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -825,7 +863,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
@@ -885,29 +923,32 @@
         <v>18</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="21">
         <v>329</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="16">
         <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>25</v>
@@ -960,30 +1001,33 @@
       <c r="V5" s="18">
         <v>44562</v>
       </c>
-      <c r="W5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="10"/>
-      <c r="AC5" s="11"/>
+      <c r="W5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="10"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="10"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="10"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="21">
         <v>330</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="16">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>26</v>
@@ -1036,12 +1080,15 @@
       <c r="V6" s="18">
         <v>44563</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="13"/>
-      <c r="AC6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="13"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="13"/>
+      <c r="AB6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
